--- a/forms/app/quality_monitoring_planning.xlsx
+++ b/forms/app/quality_monitoring_planning.xlsx
@@ -126,10 +126,10 @@
     <t>../inputs/contact/_id</t>
   </si>
   <si>
-    <t>../inputs/contact/patient_id</t>
+    <t>chw_id</t>
   </si>
   <si>
-    <t>chw_id</t>
+    <t>../inputs/contact/patient_id</t>
   </si>
   <si>
     <t>chw_name</t>
@@ -1082,7 +1082,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
@@ -1105,7 +1105,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1116,7 +1116,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
@@ -28901,7 +28901,7 @@
       </c>
       <c r="C2" s="9">
         <f>NOW()</f>
-        <v>44746.41329</v>
+        <v>44748.70866</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>79</v>
